--- a/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4911</v>
+        <v>5555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003577645941851262</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01798762071453117</v>
+        <v>0.02034820308145316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>7199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15020</v>
+        <v>14008</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02759827939457123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01169135504544648</v>
+        <v>0.01168367848051474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05758240969577734</v>
+        <v>0.05370393649263563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>8175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4015</v>
+        <v>3909</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15415</v>
+        <v>15121</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01531412488867034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007520350356668213</v>
+        <v>0.007321548304167161</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02887498735768389</v>
+        <v>0.02832401072589111</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>272033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>268099</v>
+        <v>267455</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>273010</v>
@@ -824,7 +824,7 @@
         <v>0.9964223540581487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9820123792854688</v>
+        <v>0.9796517969185466</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>253639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245818</v>
+        <v>246830</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257788</v>
+        <v>257790</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9724017206054287</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9424175903042221</v>
+        <v>0.9462960635073641</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9883086449545534</v>
+        <v>0.9883163215194852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>507</v>
@@ -857,19 +857,19 @@
         <v>525673</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518433</v>
+        <v>518727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>529833</v>
+        <v>529939</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9846858751113297</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9711250126423161</v>
+        <v>0.9716759892741089</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9924796496433318</v>
+        <v>0.9926784516958328</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5948</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2099</v>
+        <v>2782</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12237</v>
+        <v>12910</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01206349879261422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004257281193791897</v>
+        <v>0.005642976721112265</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02481730683393712</v>
+        <v>0.02618176134785417</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -982,19 +982,19 @@
         <v>15574</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9525</v>
+        <v>9569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24235</v>
+        <v>24517</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03090417407033813</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01890088464367467</v>
+        <v>0.01898884806473608</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04809053534373778</v>
+        <v>0.04864892678116926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1003,19 +1003,19 @@
         <v>21522</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13627</v>
+        <v>13521</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32207</v>
+        <v>32766</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02158657845815973</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01366764346730337</v>
+        <v>0.01356169075664397</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0323035651774344</v>
+        <v>0.03286393127948439</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>487127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480838</v>
+        <v>480165</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490976</v>
+        <v>490293</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879365012073857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.975182693166063</v>
+        <v>0.9738182386521459</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9957427188062083</v>
+        <v>0.9943570232788876</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>483</v>
@@ -1053,19 +1053,19 @@
         <v>488375</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479714</v>
+        <v>479432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>494424</v>
+        <v>494380</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9690958259296619</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9519094646562621</v>
+        <v>0.9513510732188309</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9810991153563253</v>
+        <v>0.981011151935264</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>942</v>
@@ -1074,19 +1074,19 @@
         <v>975502</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>964817</v>
+        <v>964258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>983397</v>
+        <v>983503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9784134215418403</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9676964348225656</v>
+        <v>0.9671360687205157</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9863323565326967</v>
+        <v>0.986438309243356</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5779</v>
+        <v>5752</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002977527356116165</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01812463381299061</v>
+        <v>0.01803971436717423</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>2904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8656</v>
+        <v>7650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008658667730308775</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002749688253416342</v>
+        <v>0.002744083961557079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02580742737969572</v>
+        <v>0.02280687490888682</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1220,19 +1220,19 @@
         <v>3854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8657</v>
+        <v>9763</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005890021996181643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001495811974671292</v>
+        <v>0.001460148398974588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01323160437087653</v>
+        <v>0.01492287757413745</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>317897</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313067</v>
+        <v>313094</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1258,7 +1258,7 @@
         <v>0.9970224726438839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9818753661870093</v>
+        <v>0.9819602856328258</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>332508</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326756</v>
+        <v>327762</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334490</v>
+        <v>334492</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9913413322696912</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9741925726203042</v>
+        <v>0.9771931250911131</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972503117465836</v>
+        <v>0.9972559160384429</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -1291,19 +1291,19 @@
         <v>650404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645601</v>
+        <v>644495</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653279</v>
+        <v>653303</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9941099780038184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9867683956291234</v>
+        <v>0.9850771224258625</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985041880253287</v>
+        <v>0.9985398516010253</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>6659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2878</v>
+        <v>2852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13322</v>
+        <v>12519</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01856566265752402</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008024115184633949</v>
+        <v>0.0079526913132621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03714261368613938</v>
+        <v>0.03490354909565253</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6833</v>
+        <v>6110</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20876</v>
+        <v>20174</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03257597248534252</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01839586721641093</v>
+        <v>0.01644925299867554</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05620164201616015</v>
+        <v>0.0543093178202828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1437,19 +1437,19 @@
         <v>18760</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11921</v>
+        <v>11544</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28607</v>
+        <v>28931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02569348098015107</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01632782239366805</v>
+        <v>0.0158110751728419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03918098179388806</v>
+        <v>0.03962419734325472</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>352012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345349</v>
+        <v>346152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355793</v>
+        <v>355819</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.981434337342476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9628573863138605</v>
+        <v>0.9650964509043473</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9919758848153661</v>
+        <v>0.9920473086867378</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>372</v>
@@ -1487,19 +1487,19 @@
         <v>359355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350580</v>
+        <v>351282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364623</v>
+        <v>365346</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9674240275146575</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9437983579838399</v>
+        <v>0.9456906821797171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9816041327835892</v>
+        <v>0.9835507470013244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>727</v>
@@ -1508,19 +1508,19 @@
         <v>711367</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>701520</v>
+        <v>701196</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>718206</v>
+        <v>718583</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9743065190198489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.960819018206112</v>
+        <v>0.9603758026567453</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.983672177606332</v>
+        <v>0.9841889248271583</v>
       </c>
     </row>
     <row r="15">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4481</v>
+        <v>4476</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004402751635964347</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0220428749049474</v>
+        <v>0.0220155630739712</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1633,19 +1633,19 @@
         <v>5078</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1959</v>
+        <v>1869</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11934</v>
+        <v>11426</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02445127832204051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00943098910929841</v>
+        <v>0.008997926321516577</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05746522912960257</v>
+        <v>0.05501834350371777</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1654,19 +1654,19 @@
         <v>5973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13263</v>
+        <v>13399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01453336017237091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00661679238599045</v>
+        <v>0.006609093429611799</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03227113431332533</v>
+        <v>0.03260356947593771</v>
       </c>
     </row>
     <row r="17">
@@ -1683,7 +1683,7 @@
         <v>202413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198827</v>
+        <v>198832</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>203308</v>
@@ -1692,7 +1692,7 @@
         <v>0.9955972483640356</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9779571250950526</v>
+        <v>0.9779844369260289</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1704,19 +1704,19 @@
         <v>202590</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195734</v>
+        <v>196242</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205709</v>
+        <v>205799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9755487216779595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9425347708703972</v>
+        <v>0.9449816564962821</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9905690108907016</v>
+        <v>0.9910020736784834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -1725,19 +1725,19 @@
         <v>405003</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>397713</v>
+        <v>397577</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408257</v>
+        <v>408260</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9854666398276291</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9677288656866743</v>
+        <v>0.9673964305240624</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9933832076140096</v>
+        <v>0.9933909065703882</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3837</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9800</v>
+        <v>8796</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01416740182551312</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003626314410682813</v>
+        <v>0.003634408012245345</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03618767133272652</v>
+        <v>0.03248165706743893</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1850,19 +1850,19 @@
         <v>6982</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2621</v>
+        <v>2521</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15715</v>
+        <v>14875</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0251016093210318</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009424689966891267</v>
+        <v>0.0090644368564333</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05650036321525896</v>
+        <v>0.05347938084503232</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1871,19 +1871,19 @@
         <v>10819</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5662</v>
+        <v>5729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19580</v>
+        <v>19920</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01970753569347449</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01031450601319821</v>
+        <v>0.01043663362271938</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03566714688231119</v>
+        <v>0.03628627774933003</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>266974</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261011</v>
+        <v>262015</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269829</v>
+        <v>269827</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9858325981744869</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9638123286672735</v>
+        <v>0.9675183429325608</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963736855893172</v>
+        <v>0.9963655919877547</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -1921,19 +1921,19 @@
         <v>271162</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262429</v>
+        <v>263269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275523</v>
+        <v>275623</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9748983906789682</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9434996367847415</v>
+        <v>0.9465206191549672</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9905753100331098</v>
+        <v>0.9909355631435667</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>526</v>
@@ -1942,19 +1942,19 @@
         <v>538136</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>529375</v>
+        <v>529035</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543293</v>
+        <v>543226</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9802924643065255</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9643328531176891</v>
+        <v>0.9637137222506703</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9896854939868018</v>
+        <v>0.9895633663772807</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>10856</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5588</v>
+        <v>5435</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19213</v>
+        <v>19146</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01765050557373416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009085038146127478</v>
+        <v>0.008837076870999104</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03123869082726864</v>
+        <v>0.0311305358803144</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2067,19 +2067,19 @@
         <v>5785</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12190</v>
+        <v>12021</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009064377719968937</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003179937791903975</v>
+        <v>0.003164162208765066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01909969505460198</v>
+        <v>0.0188355019954431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2088,19 +2088,19 @@
         <v>16641</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9945</v>
+        <v>9644</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26182</v>
+        <v>25350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01327799604467777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007935355475027864</v>
+        <v>0.007695064777362688</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02089131548589179</v>
+        <v>0.02022751603107244</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>604171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>595814</v>
+        <v>595881</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>609439</v>
+        <v>609592</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9823494944262658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9687613091727317</v>
+        <v>0.9688694641196853</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9909149618538725</v>
+        <v>0.9911629231290009</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>615</v>
@@ -2138,19 +2138,19 @@
         <v>632434</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>626029</v>
+        <v>626198</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>636190</v>
+        <v>636200</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9909356222800311</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.980900304945399</v>
+        <v>0.9811644980045569</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.996820062208096</v>
+        <v>0.996835837791235</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1202</v>
@@ -2159,19 +2159,19 @@
         <v>1236605</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1227064</v>
+        <v>1227896</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1243301</v>
+        <v>1243602</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9867220039553223</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9791086845141083</v>
+        <v>0.9797724839689277</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9920646445249721</v>
+        <v>0.9923049352226373</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>28542</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19106</v>
+        <v>19141</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39673</v>
+        <v>39605</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03842598642755884</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02572293683359292</v>
+        <v>0.0257691936382384</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05341187439805821</v>
+        <v>0.05331968429782828</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2284,19 +2284,19 @@
         <v>19167</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12184</v>
+        <v>11835</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29902</v>
+        <v>29281</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0244634131076286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01555045920572791</v>
+        <v>0.01510475201599253</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03816409273462768</v>
+        <v>0.03737192000074009</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -2305,19 +2305,19 @@
         <v>47709</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34906</v>
+        <v>35213</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63551</v>
+        <v>62454</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03125838064162206</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02286957644631718</v>
+        <v>0.02307073120974303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04163738588518195</v>
+        <v>0.04091879200549969</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>714235</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>703104</v>
+        <v>703172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>723671</v>
+        <v>723636</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9615740135724412</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9465881256019419</v>
+        <v>0.9466803157021717</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9742770631664071</v>
+        <v>0.9742308063617616</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>727</v>
@@ -2355,19 +2355,19 @@
         <v>764344</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>753609</v>
+        <v>754230</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>771327</v>
+        <v>771676</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9755365868923714</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9618359072653724</v>
+        <v>0.9626280799992599</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9844495407942722</v>
+        <v>0.9848952479840074</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1434</v>
@@ -2376,19 +2376,19 @@
         <v>1478579</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1462737</v>
+        <v>1463834</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1491382</v>
+        <v>1491075</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.968741619358378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.958362614114818</v>
+        <v>0.9590812079945003</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9771304235536828</v>
+        <v>0.976929268790257</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>58663</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>75431</v>
+        <v>75639</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0179093597392352</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01378977435704009</v>
+        <v>0.01378810503931462</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02302874057988636</v>
+        <v>0.02309209636156779</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>74</v>
@@ -2501,19 +2501,19 @@
         <v>74790</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>59623</v>
+        <v>60325</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>95690</v>
+        <v>94621</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02213235544410175</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01764408954218095</v>
+        <v>0.01785189251954013</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02831724624947891</v>
+        <v>0.02800115905029992</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>133</v>
@@ -2522,19 +2522,19 @@
         <v>133452</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>111389</v>
+        <v>111051</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>158502</v>
+        <v>157842</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02005375205686265</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01673836752900124</v>
+        <v>0.01668753418423446</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02381799864549361</v>
+        <v>0.02371886825728065</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3216862</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3200094</v>
+        <v>3199886</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3230356</v>
+        <v>3230362</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9820906402607648</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9769712594201136</v>
+        <v>0.9769079036384323</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.98621022564296</v>
+        <v>0.9862118949606854</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3223</v>
@@ -2572,19 +2572,19 @@
         <v>3304407</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3283507</v>
+        <v>3284576</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3319574</v>
+        <v>3318872</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9778676445558983</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9716827537505212</v>
+        <v>0.9719988409497001</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9823559104578191</v>
+        <v>0.9821481074804598</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6377</v>
@@ -2593,19 +2593,19 @@
         <v>6521270</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6496220</v>
+        <v>6496880</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6543333</v>
+        <v>6543671</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9799462479431373</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9761820013545064</v>
+        <v>0.9762811317427196</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9832616324709988</v>
+        <v>0.9833124658157657</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>16197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9173</v>
+        <v>9216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25846</v>
+        <v>26168</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0558111397199921</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03160920697564252</v>
+        <v>0.03175819503812014</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08906224019945232</v>
+        <v>0.09016964294240695</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2962,19 +2962,19 @@
         <v>20524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12449</v>
+        <v>13361</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30386</v>
+        <v>31376</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07293987575843047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04424106871396731</v>
+        <v>0.04748403568091898</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1079877986285563</v>
+        <v>0.1115053676161795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2983,19 +2983,19 @@
         <v>36721</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24210</v>
+        <v>24991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49698</v>
+        <v>50708</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06424337491157193</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04235505581658032</v>
+        <v>0.04372246586145321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08694725220220313</v>
+        <v>0.08871340488993941</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>274006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264357</v>
+        <v>264035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281030</v>
+        <v>280987</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9441888602800079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9109377598005477</v>
+        <v>0.9098303570575931</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9683907930243575</v>
+        <v>0.9682418049618798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -3033,19 +3033,19 @@
         <v>260861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250999</v>
+        <v>250009</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268936</v>
+        <v>268024</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9270601242415695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.892012201371444</v>
+        <v>0.8884946323838204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9557589312860327</v>
+        <v>0.952515964319081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>496</v>
@@ -3054,19 +3054,19 @@
         <v>534867</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>521890</v>
+        <v>520880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>547378</v>
+        <v>546597</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9357566250884281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.913052747797797</v>
+        <v>0.9112865951100606</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9576449441834197</v>
+        <v>0.9562775341385468</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>9497</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4025</v>
+        <v>3996</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20465</v>
+        <v>19514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01881970275052288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007975717948388967</v>
+        <v>0.007919596220084297</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04055361179753505</v>
+        <v>0.03867016035812056</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3179,19 +3179,19 @@
         <v>7415</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3205</v>
+        <v>3337</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14890</v>
+        <v>15031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0141852164970201</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006130627633731198</v>
+        <v>0.006382996311361774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02848434198230335</v>
+        <v>0.02875481891817233</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -3200,19 +3200,19 @@
         <v>16912</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9233</v>
+        <v>10274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28904</v>
+        <v>28784</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01646164061525208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008987312769885287</v>
+        <v>0.01000014035583864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02813442976268144</v>
+        <v>0.02801720672027423</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>495136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>484168</v>
+        <v>485119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500608</v>
+        <v>500637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9811802972494771</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9594463882024661</v>
+        <v>0.9613298396418796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9920242820516111</v>
+        <v>0.9920804037799157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>472</v>
@@ -3250,19 +3250,19 @@
         <v>515316</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>507841</v>
+        <v>507700</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>519526</v>
+        <v>519394</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9858147835029799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9715156580176966</v>
+        <v>0.9712451810818278</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9938693723662688</v>
+        <v>0.9936170036886383</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>936</v>
@@ -3271,19 +3271,19 @@
         <v>1010452</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>998460</v>
+        <v>998580</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1018131</v>
+        <v>1017090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9835383593847479</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9718655702373186</v>
+        <v>0.9719827932797258</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9910126872301147</v>
+        <v>0.9899998596441614</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>3981</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1015</v>
+        <v>939</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10285</v>
+        <v>9833</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01231999932142721</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003142687191460434</v>
+        <v>0.002905694613537799</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03183056730864908</v>
+        <v>0.03043037794220576</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3396,19 +3396,19 @@
         <v>7978</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3939</v>
+        <v>3868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15001</v>
+        <v>15101</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02339514877562282</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01155126192712384</v>
+        <v>0.0113421445010811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04398791434249803</v>
+        <v>0.04428260097977366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -3417,19 +3417,19 @@
         <v>11959</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6822</v>
+        <v>6874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20607</v>
+        <v>19956</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01800685693472981</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01027222096425341</v>
+        <v>0.01035101804528947</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03102827416770489</v>
+        <v>0.0300481088943454</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>319135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312831</v>
+        <v>313283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322101</v>
+        <v>322177</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9876800006785728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9681694326913522</v>
+        <v>0.9695696220577943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968573128085396</v>
+        <v>0.9970943053864623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>309</v>
@@ -3467,19 +3467,19 @@
         <v>333042</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326019</v>
+        <v>325919</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337081</v>
+        <v>337152</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9766048512243771</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9560120856575021</v>
+        <v>0.9557173990202267</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9884487380728761</v>
+        <v>0.9886578554989189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>623</v>
@@ -3488,19 +3488,19 @@
         <v>652177</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643529</v>
+        <v>644180</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>657314</v>
+        <v>657262</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9819931430652702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9689717258322952</v>
+        <v>0.9699518911056545</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9897277790357467</v>
+        <v>0.9896489819547105</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>12127</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5677</v>
+        <v>5847</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22326</v>
+        <v>22415</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03242560866530056</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01518023801751241</v>
+        <v>0.01563568809569168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05969848718770804</v>
+        <v>0.05993494741273355</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3613,19 +3613,19 @@
         <v>11321</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5386</v>
+        <v>5223</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20496</v>
+        <v>20633</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02917873873673811</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01388167238634107</v>
+        <v>0.01346298789092908</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05282728964794813</v>
+        <v>0.05318079979561134</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -3634,19 +3634,19 @@
         <v>23447</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14932</v>
+        <v>14802</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36012</v>
+        <v>35269</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03077236191399139</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01959631276028959</v>
+        <v>0.01942611962346952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04726313416423572</v>
+        <v>0.04628727592703605</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>361855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351656</v>
+        <v>351567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368305</v>
+        <v>368135</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9675743913346995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9403015128122919</v>
+        <v>0.9400650525872664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9848197619824876</v>
+        <v>0.9843643119043081</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>360</v>
@@ -3684,19 +3684,19 @@
         <v>376653</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>367478</v>
+        <v>367341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382588</v>
+        <v>382751</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9708212612632618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9471727103520519</v>
+        <v>0.9468192002043884</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.986118327613659</v>
+        <v>0.9865370121090706</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>694</v>
@@ -3705,19 +3705,19 @@
         <v>738509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>725944</v>
+        <v>726687</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>747024</v>
+        <v>747154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9692276380860086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9527368658357642</v>
+        <v>0.9537127240729638</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9804036872397103</v>
+        <v>0.9805738803765305</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>10457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4656</v>
+        <v>4775</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20218</v>
+        <v>21308</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04918167044271522</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02189669985399356</v>
+        <v>0.02245717363888485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09509180654872637</v>
+        <v>0.1002166581421895</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3830,19 +3830,19 @@
         <v>10784</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5080</v>
+        <v>5780</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18656</v>
+        <v>20800</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04933198368152341</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02323728979466363</v>
+        <v>0.02644241047934055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08534723005436499</v>
+        <v>0.09515493037228168</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -3851,19 +3851,19 @@
         <v>21241</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12828</v>
+        <v>12667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32163</v>
+        <v>33753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04925786848815517</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0297496335430524</v>
+        <v>0.02937593372326426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07458862605535174</v>
+        <v>0.07827585195430989</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>202161</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192400</v>
+        <v>191310</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207962</v>
+        <v>207843</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9508183295572847</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9049081934512736</v>
+        <v>0.8997833418578103</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9781033001460063</v>
+        <v>0.9775428263611151</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -3901,19 +3901,19 @@
         <v>207809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199937</v>
+        <v>197793</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213513</v>
+        <v>212813</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9506680163184766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9146527699456348</v>
+        <v>0.9048450696277184</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9767627102053363</v>
+        <v>0.9735575895206594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -3922,19 +3922,19 @@
         <v>409970</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>399048</v>
+        <v>397458</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418383</v>
+        <v>418544</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9507421315118448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9254113739446482</v>
+        <v>0.9217241480456901</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9702503664569475</v>
+        <v>0.9706240662767357</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>3823</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9381</v>
+        <v>9442</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01395172389759133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003518424805848576</v>
+        <v>0.003505321057796974</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03424009481357477</v>
+        <v>0.03446088999342703</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -4047,19 +4047,19 @@
         <v>3773</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10817</v>
+        <v>10858</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01351598518993265</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003479396458325447</v>
+        <v>0.003542137930270113</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03874982804710939</v>
+        <v>0.03889658610303034</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -4068,19 +4068,19 @@
         <v>7595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3738</v>
+        <v>2969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15867</v>
+        <v>16006</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01373182231384257</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006758131950720373</v>
+        <v>0.005367148041829619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02868611294805969</v>
+        <v>0.02893755695990979</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>270158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264600</v>
+        <v>264539</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273017</v>
+        <v>273021</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9860482761024086</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9657599051864264</v>
+        <v>0.9655391100065729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964815751941514</v>
+        <v>0.996494678942203</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -4118,19 +4118,19 @@
         <v>275367</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>268323</v>
+        <v>268282</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>278169</v>
+        <v>278151</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9864840148100673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9612501719528906</v>
+        <v>0.9611034138969696</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9965206035416745</v>
+        <v>0.9964578620697299</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -4139,19 +4139,19 @@
         <v>545526</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537254</v>
+        <v>537115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549383</v>
+        <v>550152</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9862681776861574</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.97131388705194</v>
+        <v>0.9710624430400904</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9932418680492795</v>
+        <v>0.9946328519581705</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>9956</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4991</v>
+        <v>5129</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18257</v>
+        <v>18422</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01507073894846986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007555407269224031</v>
+        <v>0.007763562948266747</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02763704101031515</v>
+        <v>0.02788728452363769</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4264,19 +4264,19 @@
         <v>13219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7307</v>
+        <v>6589</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23157</v>
+        <v>22188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01905171049176045</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01053064980874219</v>
+        <v>0.009495735144282738</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03337414063151978</v>
+        <v>0.03197837838357711</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4285,19 +4285,19 @@
         <v>23175</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14154</v>
+        <v>14786</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34719</v>
+        <v>35891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01711009809098017</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0104497166991139</v>
+        <v>0.01091646253339432</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02563359735690066</v>
+        <v>0.02649840375527745</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>650641</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>642340</v>
+        <v>642175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655606</v>
+        <v>655468</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9849292610515301</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9723629589896835</v>
+        <v>0.9721127154763618</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.992444592730776</v>
+        <v>0.9922364370517328</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>624</v>
@@ -4335,19 +4335,19 @@
         <v>680634</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>670696</v>
+        <v>671665</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>686546</v>
+        <v>687264</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9809482895082395</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9666258593684802</v>
+        <v>0.9680216216164229</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9894693501912577</v>
+        <v>0.9905042648557172</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1232</v>
@@ -4356,19 +4356,19 @@
         <v>1331275</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1319731</v>
+        <v>1318559</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1340296</v>
+        <v>1339664</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9828899019090198</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9743664026430995</v>
+        <v>0.9735015962447225</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9895502833008862</v>
+        <v>0.9890835374666062</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>30769</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20872</v>
+        <v>20076</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44290</v>
+        <v>44993</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03960133443362521</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02686317014611641</v>
+        <v>0.02583870428461097</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05700307257165005</v>
+        <v>0.05790819425061922</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -4481,19 +4481,19 @@
         <v>26304</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18049</v>
+        <v>16963</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39029</v>
+        <v>38779</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03201858907187127</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02196996097598105</v>
+        <v>0.02064885104629026</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04750837991612373</v>
+        <v>0.04720406259180707</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -4502,19 +4502,19 @@
         <v>57073</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42227</v>
+        <v>43560</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73349</v>
+        <v>75415</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03570429950170972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02641664246936068</v>
+        <v>0.02725056779001686</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04588656374396637</v>
+        <v>0.04717869035561998</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>746203</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>732682</v>
+        <v>731979</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>756100</v>
+        <v>756896</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9603986655663748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9429969274283498</v>
+        <v>0.942091805749381</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9731368298538836</v>
+        <v>0.9741612957153891</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>731</v>
@@ -4552,19 +4552,19 @@
         <v>795216</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>782491</v>
+        <v>782741</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>803471</v>
+        <v>804557</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9679814109281287</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9524916200838762</v>
+        <v>0.9527959374081928</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.978030039024019</v>
+        <v>0.9793511489537098</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1419</v>
@@ -4573,19 +4573,19 @@
         <v>1541419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1525143</v>
+        <v>1523077</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1556265</v>
+        <v>1554932</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9642957004982903</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9541134362560336</v>
+        <v>0.9528213096443799</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9735833575306393</v>
+        <v>0.9727494322099831</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>96805</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>76042</v>
+        <v>75525</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>117649</v>
+        <v>118212</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0283379203174748</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0222599411261059</v>
+        <v>0.02210851730124338</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03443947384500962</v>
+        <v>0.03460428374438442</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>93</v>
@@ -4698,19 +4698,19 @@
         <v>101318</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>82708</v>
+        <v>82317</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>123063</v>
+        <v>125755</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02857059972085094</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02332279770277957</v>
+        <v>0.02321274383528633</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03470268551698643</v>
+        <v>0.03546175182510768</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>176</v>
@@ -4719,19 +4719,19 @@
         <v>198123</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>169478</v>
+        <v>170430</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>229008</v>
+        <v>229839</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02845643421844046</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02434214460051584</v>
+        <v>0.02447892235996506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0328924476922333</v>
+        <v>0.03301181282722718</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3319298</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3298454</v>
+        <v>3297891</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3340061</v>
+        <v>3340578</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9716620796825252</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.96556052615499</v>
+        <v>0.9653957162556155</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.977740058873894</v>
+        <v>0.9778914826987566</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3194</v>
@@ -4769,19 +4769,19 @@
         <v>3444899</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3423154</v>
+        <v>3420462</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3463509</v>
+        <v>3463900</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.971429400279149</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.965297314483013</v>
+        <v>0.9645382481748932</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9766772022972203</v>
+        <v>0.9767872561647137</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6311</v>
@@ -4790,19 +4790,19 @@
         <v>6764197</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6733312</v>
+        <v>6732481</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6792842</v>
+        <v>6791890</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9715435657815595</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9671075523077676</v>
+        <v>0.9669881871727728</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9756578553994844</v>
+        <v>0.9755210776400349</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>4462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11608</v>
+        <v>10651</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01519027636814067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003507478513755706</v>
+        <v>0.00344084327567963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03951518161188787</v>
+        <v>0.0362565793456452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5159,19 +5159,19 @@
         <v>8732</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3812</v>
+        <v>3900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16960</v>
+        <v>16415</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03024446396632093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01320435044457259</v>
+        <v>0.01350961268101098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05874573664256137</v>
+        <v>0.05685846052181807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -5180,19 +5180,19 @@
         <v>13194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6995</v>
+        <v>7242</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23421</v>
+        <v>23163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02265200638900134</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0120098836365582</v>
+        <v>0.01243398947440294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.040209986688151</v>
+        <v>0.03976809460105631</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>289299</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>282153</v>
+        <v>283110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292731</v>
+        <v>292750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9848097236318594</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9604848183881119</v>
+        <v>0.9637434206543547</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9964925214862442</v>
+        <v>0.9965591567243203</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -5230,19 +5230,19 @@
         <v>279971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271743</v>
+        <v>272288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284891</v>
+        <v>284803</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.969755536033679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9412542633574386</v>
+        <v>0.9431415394781817</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9867956495554274</v>
+        <v>0.986490387318989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>531</v>
@@ -5251,19 +5251,19 @@
         <v>569270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>559043</v>
+        <v>559301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575469</v>
+        <v>575222</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9773479936109987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.959790013311849</v>
+        <v>0.9602319053989437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9879901163634419</v>
+        <v>0.9875660105255971</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>9555</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4395</v>
+        <v>5199</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17171</v>
+        <v>17849</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0190127110657753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008745281276063322</v>
+        <v>0.01034441657457523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03416569890640334</v>
+        <v>0.03551508757272717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -5376,19 +5376,19 @@
         <v>7044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3032</v>
+        <v>2971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14054</v>
+        <v>14970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01346696675026159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00579600687399666</v>
+        <v>0.005679565890784507</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02686833842751463</v>
+        <v>0.02861909694810839</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -5397,19 +5397,19 @@
         <v>16600</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9996</v>
+        <v>10076</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26602</v>
+        <v>26241</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01618439376247477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009745627006836774</v>
+        <v>0.009824270173893672</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02593660328135842</v>
+        <v>0.02558435973291547</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>493020</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485404</v>
+        <v>484726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>498180</v>
+        <v>497376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9809872889342247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9658343010935967</v>
+        <v>0.9644849124272727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9912547187239367</v>
+        <v>0.9896555834254248</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>477</v>
@@ -5447,19 +5447,19 @@
         <v>516040</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>509030</v>
+        <v>508114</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>520052</v>
+        <v>520113</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9865330332497384</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9731316615724853</v>
+        <v>0.9713809030518908</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9942039931260034</v>
+        <v>0.9943204341092154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>943</v>
@@ -5468,19 +5468,19 @@
         <v>1009059</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>999057</v>
+        <v>999418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1015663</v>
+        <v>1015583</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9838156062375253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9740633967186415</v>
+        <v>0.9744156402670845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9902543729931631</v>
+        <v>0.9901757298261064</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>7508</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3705</v>
+        <v>3047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14952</v>
+        <v>13233</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02356668100798546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01163096039055828</v>
+        <v>0.009565832257505257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04693690673296149</v>
+        <v>0.04153847238419321</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5593,19 +5593,19 @@
         <v>6725</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2953</v>
+        <v>2794</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13602</v>
+        <v>13527</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01999677166602536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008780612565714035</v>
+        <v>0.008309267290464594</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04044620844826006</v>
+        <v>0.04022170816754487</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -5614,19 +5614,19 @@
         <v>14233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7971</v>
+        <v>7567</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22375</v>
+        <v>22257</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02173336246312448</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01217164321959574</v>
+        <v>0.01155538225696545</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0341666348671504</v>
+        <v>0.03398733130941846</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>311057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>303613</v>
+        <v>305332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314860</v>
+        <v>315518</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9764333189920146</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9530630932670385</v>
+        <v>0.9584615276158068</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9883690396094417</v>
+        <v>0.9904341677424948</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -5664,19 +5664,19 @@
         <v>329584</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>322707</v>
+        <v>322782</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333356</v>
+        <v>333515</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9800032283339747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9595537915517399</v>
+        <v>0.9597782918324551</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9912193874342859</v>
+        <v>0.9916907327095353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>652</v>
@@ -5685,19 +5685,19 @@
         <v>640641</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>632499</v>
+        <v>632617</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646903</v>
+        <v>647307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9782666375368755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9658333651328495</v>
+        <v>0.9660126686905813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.987828356780404</v>
+        <v>0.9884446177430345</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>9201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4369</v>
+        <v>4651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17555</v>
+        <v>17038</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02486867085037693</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01180923164849379</v>
+        <v>0.01257122716809117</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04745173385730277</v>
+        <v>0.04605422963161797</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5810,19 +5810,19 @@
         <v>10088</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4889</v>
+        <v>4550</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18380</v>
+        <v>18358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02604833405546597</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01262344593280234</v>
+        <v>0.01174885928928532</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04745835335416525</v>
+        <v>0.04740307997119653</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -5831,19 +5831,19 @@
         <v>19289</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11747</v>
+        <v>11541</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29950</v>
+        <v>29966</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02547199249660698</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01551280916329126</v>
+        <v>0.01524058436156171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03955178967057524</v>
+        <v>0.03957215668508519</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>360763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352409</v>
+        <v>352926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365595</v>
+        <v>365313</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9751313291496231</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9525482661426975</v>
+        <v>0.953945770368382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9881907683515062</v>
+        <v>0.9874287728319089</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -5881,19 +5881,19 @@
         <v>377195</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>368903</v>
+        <v>368925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382394</v>
+        <v>382733</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.973951665944534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9525416466458347</v>
+        <v>0.9525969200288035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9873765540671976</v>
+        <v>0.9882511407107147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>694</v>
@@ -5902,19 +5902,19 @@
         <v>737958</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>727297</v>
+        <v>727281</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>745500</v>
+        <v>745706</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.974528007503393</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9604482103294246</v>
+        <v>0.9604278433149148</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9844871908367085</v>
+        <v>0.9847594156384383</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>3477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9378</v>
+        <v>9448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01646271012654266</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004521490996267449</v>
+        <v>0.00441198965977976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04439870628671728</v>
+        <v>0.04473003444315457</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6027,19 +6027,19 @@
         <v>6502</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2290</v>
+        <v>2297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13696</v>
+        <v>14160</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02974389101031433</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01047478224127708</v>
+        <v>0.0105091725981515</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06265509118586886</v>
+        <v>0.06478023049528203</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -6048,19 +6048,19 @@
         <v>9979</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4760</v>
+        <v>5072</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17308</v>
+        <v>19748</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02321710626994138</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01107493716103039</v>
+        <v>0.01179956811067421</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04026807835554562</v>
+        <v>0.0459468144664532</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>207744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201843</v>
+        <v>201773</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210266</v>
+        <v>210289</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9835372898734573</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9556012937132826</v>
+        <v>0.9552699655568457</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9954785090037326</v>
+        <v>0.9955880103402203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>217</v>
@@ -6098,19 +6098,19 @@
         <v>212085</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204891</v>
+        <v>204427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216297</v>
+        <v>216290</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9702561089896857</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9373449088141311</v>
+        <v>0.935219769504718</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9895252177587229</v>
+        <v>0.9894908274018485</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>426</v>
@@ -6119,19 +6119,19 @@
         <v>419829</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>412500</v>
+        <v>410060</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425048</v>
+        <v>424736</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9767828937300587</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9597319216444544</v>
+        <v>0.9540531855335469</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9889250628389697</v>
+        <v>0.9882004318893258</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>3554</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>966</v>
+        <v>845</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8892</v>
+        <v>8347</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01350599645158932</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003670039901688397</v>
+        <v>0.00321015025238267</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03379532446505587</v>
+        <v>0.03172157195650776</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -6244,19 +6244,19 @@
         <v>2775</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8024</v>
+        <v>7362</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01016159247993346</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003202768614201303</v>
+        <v>0.003159918488544584</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02937985893114093</v>
+        <v>0.026954537239006</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -6265,19 +6265,19 @@
         <v>6329</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2704</v>
+        <v>2646</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11935</v>
+        <v>12487</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01180263545735072</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005041908768265145</v>
+        <v>0.004934620771789658</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02225716814739737</v>
+        <v>0.02328699884680068</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>259569</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254231</v>
+        <v>254776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262157</v>
+        <v>262278</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9864940035484107</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9662046755349439</v>
+        <v>0.9682784280434923</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963299600983115</v>
+        <v>0.9967898497476179</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -6315,19 +6315,19 @@
         <v>270340</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265091</v>
+        <v>265753</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272240</v>
+        <v>272252</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9898384075200666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9706201410688574</v>
+        <v>0.973045462760994</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9967972313857987</v>
+        <v>0.9968400815114554</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -6336,19 +6336,19 @@
         <v>529909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>524303</v>
+        <v>523751</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533534</v>
+        <v>533592</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9881973645426493</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9777428318526026</v>
+        <v>0.9767130011531994</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9949580912317348</v>
+        <v>0.9950653792282104</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>21319</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13003</v>
+        <v>13381</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33464</v>
+        <v>33386</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03247071087468962</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01980421910535093</v>
+        <v>0.02038012775370257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05096886248466221</v>
+        <v>0.05084993159648436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -6461,19 +6461,19 @@
         <v>19173</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10898</v>
+        <v>11405</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31108</v>
+        <v>31101</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0277351890456234</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01576509764143634</v>
+        <v>0.01649861167119564</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04499968721912086</v>
+        <v>0.04498950682160367</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -6482,19 +6482,19 @@
         <v>40492</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28581</v>
+        <v>27984</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55660</v>
+        <v>55275</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03004192949847048</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02120494655338714</v>
+        <v>0.02076192335289541</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04129508496321942</v>
+        <v>0.04100997984041909</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>635239</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>623094</v>
+        <v>623172</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>643555</v>
+        <v>643177</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9675292891253103</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9490311375153381</v>
+        <v>0.9491500684035151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9801957808946492</v>
+        <v>0.9796198722462973</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>630</v>
@@ -6532,19 +6532,19 @@
         <v>672121</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>660186</v>
+        <v>660193</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>680396</v>
+        <v>679889</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9722648109543766</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9550003127808786</v>
+        <v>0.9550104931783961</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9842349023585637</v>
+        <v>0.9835013883288041</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1192</v>
@@ -6553,19 +6553,19 @@
         <v>1307360</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1292192</v>
+        <v>1292577</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1319271</v>
+        <v>1319868</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9699580705015295</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9587049150367807</v>
+        <v>0.9589900201595806</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9787950534466131</v>
+        <v>0.9792380766471046</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>10059</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4855</v>
+        <v>4892</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17918</v>
+        <v>18505</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01291940901932337</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006235812376139576</v>
+        <v>0.006283330364415151</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02301349655157443</v>
+        <v>0.02376750326459106</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -6678,19 +6678,19 @@
         <v>18924</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11257</v>
+        <v>11128</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30084</v>
+        <v>31123</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0229062641920163</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01362547940518641</v>
+        <v>0.01346939222306066</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0364140071151063</v>
+        <v>0.03767134513113139</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -6699,19 +6699,19 @@
         <v>28983</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20342</v>
+        <v>19624</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42096</v>
+        <v>41699</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01806090159050459</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01267614469908289</v>
+        <v>0.0122288822979336</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02623242610022968</v>
+        <v>0.02598454953233736</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>768524</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>760665</v>
+        <v>760078</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>773728</v>
+        <v>773691</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9870805909806767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9769865034484253</v>
+        <v>0.9762324967354087</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9937641876238604</v>
+        <v>0.9937166696355847</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>738</v>
@@ -6749,19 +6749,19 @@
         <v>807243</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>796083</v>
+        <v>795044</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>814910</v>
+        <v>815039</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9770937358079838</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9635859928848935</v>
+        <v>0.9623286548688685</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9863745205948135</v>
+        <v>0.9865306077769394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1478</v>
@@ -6770,19 +6770,19 @@
         <v>1575767</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1562654</v>
+        <v>1563051</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1584408</v>
+        <v>1585126</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9819390984094954</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9737675738997703</v>
+        <v>0.9740154504676627</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9873238553009172</v>
+        <v>0.9877711177020664</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>69134</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>54550</v>
+        <v>51940</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86130</v>
+        <v>88020</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0203674935763462</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01607082374184086</v>
+        <v>0.01530176753567606</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02537461154884219</v>
+        <v>0.02593140041387221</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>73</v>
@@ -6895,19 +6895,19 @@
         <v>79964</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>62727</v>
+        <v>61573</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101925</v>
+        <v>97839</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02255966330879475</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01769682647381617</v>
+        <v>0.01737134170840455</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02875556657475938</v>
+        <v>0.02760262118059435</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>138</v>
@@ -6916,19 +6916,19 @@
         <v>149098</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>127489</v>
+        <v>126685</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>178054</v>
+        <v>175066</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0214873030938403</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01837309818930853</v>
+        <v>0.01825729669033089</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02566026813376164</v>
+        <v>0.02522968154873258</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3325216</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3308220</v>
+        <v>3306330</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3339800</v>
+        <v>3342410</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9796325064236538</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9746253884511579</v>
+        <v>0.9740685995861277</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9839291762581592</v>
+        <v>0.9846982324643239</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3265</v>
@@ -6966,19 +6966,19 @@
         <v>3464578</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3442617</v>
+        <v>3446703</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3481815</v>
+        <v>3482969</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9774403366912052</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9712444334252406</v>
+        <v>0.9723973788194056</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9823031735261838</v>
+        <v>0.9826286582915954</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6431</v>
@@ -6987,19 +6987,19 @@
         <v>6789794</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6760838</v>
+        <v>6763826</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6811403</v>
+        <v>6812207</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9785126969061597</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9743397318662388</v>
+        <v>0.9747703184512673</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9816269018106918</v>
+        <v>0.9817427033096686</v>
       </c>
     </row>
     <row r="30">
@@ -7338,16 +7338,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4855</v>
+        <v>4036</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.002493594761189147</v>
+        <v>0.002493594761189148</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01522634418865101</v>
+        <v>0.01265756775443587</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -7356,19 +7356,19 @@
         <v>8559</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4210</v>
+        <v>4363</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17364</v>
+        <v>16757</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0270795213435257</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01331898702998125</v>
+        <v>0.01380357013247421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05493911021556345</v>
+        <v>0.05301741198078816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -7377,19 +7377,19 @@
         <v>9354</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5062</v>
+        <v>4850</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16946</v>
+        <v>18614</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01473264226281856</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007972519844991054</v>
+        <v>0.007638182905101394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02669005099455213</v>
+        <v>0.02931850747987214</v>
       </c>
     </row>
     <row r="5">
@@ -7406,16 +7406,16 @@
         <v>318050</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>313990</v>
+        <v>314809</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9975064052388108</v>
+        <v>0.997506405238811</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9847736558113489</v>
+        <v>0.9873424322455642</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -7427,19 +7427,19 @@
         <v>307502</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298697</v>
+        <v>299304</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311851</v>
+        <v>311698</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9729204786564744</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9450608897844367</v>
+        <v>0.946982588019212</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9866810129700189</v>
+        <v>0.986196429867526</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>857</v>
@@ -7448,19 +7448,19 @@
         <v>625552</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>617960</v>
+        <v>616292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>629844</v>
+        <v>630056</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9852673577371814</v>
+        <v>0.9852673577371817</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9733099490054476</v>
+        <v>0.9706814925201275</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9920274801550087</v>
+        <v>0.9923618170948983</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>8062</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2782</v>
+        <v>2697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16569</v>
+        <v>17055</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01522105483664728</v>
+        <v>0.01522105483664727</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005252225123442089</v>
+        <v>0.005091678433692349</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03128229909507133</v>
+        <v>0.03220025725530783</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -7573,19 +7573,19 @@
         <v>11333</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6773</v>
+        <v>6698</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17302</v>
+        <v>18277</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02078711076426354</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0124222767330985</v>
+        <v>0.01228420298346381</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03173426408906529</v>
+        <v>0.03352190201797141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -7594,19 +7594,19 @@
         <v>19395</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11999</v>
+        <v>12465</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29758</v>
+        <v>30082</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01804435430507147</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01116324813488899</v>
+        <v>0.01159636034823987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02768493164301455</v>
+        <v>0.02798649062604914</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>521598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>513091</v>
+        <v>512605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>526878</v>
+        <v>526963</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9847789451633527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9687177009049287</v>
+        <v>0.967799742744692</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9947477748765579</v>
+        <v>0.9949083215663075</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>698</v>
@@ -7644,19 +7644,19 @@
         <v>533880</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>527911</v>
+        <v>526936</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>538440</v>
+        <v>538515</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9792128892357365</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9682657359109347</v>
+        <v>0.9664780979820284</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9875777232669014</v>
+        <v>0.987715797016536</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1073</v>
@@ -7665,19 +7665,19 @@
         <v>1055478</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1045115</v>
+        <v>1044791</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1062874</v>
+        <v>1062408</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9819556456949284</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.972315068356985</v>
+        <v>0.9720135093739509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9888367518651109</v>
+        <v>0.98840363965176</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>14174</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8406</v>
+        <v>8391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23165</v>
+        <v>21969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04492465358789718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02664294973884057</v>
+        <v>0.02659634256728807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07342246792754055</v>
+        <v>0.06963236816470941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -7790,19 +7790,19 @@
         <v>17818</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11474</v>
+        <v>12035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25010</v>
+        <v>25829</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04999739171957643</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03219464333306151</v>
+        <v>0.03376922502744924</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07017696589005259</v>
+        <v>0.07247506118099104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -7811,19 +7811,19 @@
         <v>31992</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23259</v>
+        <v>23631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43036</v>
+        <v>42292</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04761535704313136</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03461779790716311</v>
+        <v>0.035171731100921</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0640531780289378</v>
+        <v>0.06294527992382765</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>301324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>292333</v>
+        <v>293529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307092</v>
+        <v>307107</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9550753464121029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9265775320724596</v>
+        <v>0.9303676318352907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9733570502611594</v>
+        <v>0.9734036574327118</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>508</v>
@@ -7861,19 +7861,19 @@
         <v>338563</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331371</v>
+        <v>330552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>344907</v>
+        <v>344346</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9500026082804237</v>
+        <v>0.9500026082804236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9298230341099474</v>
+        <v>0.9275249388190089</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9678053566669385</v>
+        <v>0.9662307749725508</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>850</v>
@@ -7882,19 +7882,19 @@
         <v>639888</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628844</v>
+        <v>629588</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648621</v>
+        <v>648249</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9523846429568685</v>
+        <v>0.9523846429568686</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9359468219710622</v>
+        <v>0.9370547200761727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9653822020928368</v>
+        <v>0.9648282688990791</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>4822</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15368</v>
+        <v>14596</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01292375278946163</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002008940926338563</v>
+        <v>0.001968862224475251</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.041186027733781</v>
+        <v>0.03911704320188641</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -8007,19 +8007,19 @@
         <v>7309</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3389</v>
+        <v>3093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15566</v>
+        <v>15730</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01733407658948404</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008038506205310348</v>
+        <v>0.007335769869513535</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03691963880280135</v>
+        <v>0.03730782158110466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -8028,19 +8028,19 @@
         <v>12131</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5995</v>
+        <v>5740</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21802</v>
+        <v>21268</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01526343972406397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007543370558473398</v>
+        <v>0.007221707111259441</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02743177905843206</v>
+        <v>0.02675987459067211</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>368323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357777</v>
+        <v>358549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372395</v>
+        <v>372410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9870762472105384</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9588139722662188</v>
+        <v>0.9608829567981125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9979910590736614</v>
+        <v>0.9980311377755248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>590</v>
@@ -8078,19 +8078,19 @@
         <v>414321</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>406064</v>
+        <v>405900</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418241</v>
+        <v>418537</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.982665923410516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9630803611971988</v>
+        <v>0.9626921784188954</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9919614937946896</v>
+        <v>0.9926642301304864</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>879</v>
@@ -8099,19 +8099,19 @@
         <v>782644</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>772973</v>
+        <v>773507</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>788780</v>
+        <v>789035</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9847365602759361</v>
+        <v>0.9847365602759359</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9725682209415684</v>
+        <v>0.9732401254093277</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9924566294415268</v>
+        <v>0.9927782928887405</v>
       </c>
     </row>
     <row r="15">
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5158</v>
+        <v>5210</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007143465894211727</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02507953473666913</v>
+        <v>0.02533187417523063</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -8224,19 +8224,19 @@
         <v>5015</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2623</v>
+        <v>2535</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8362</v>
+        <v>8378</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02207087509510634</v>
+        <v>0.02207087509510633</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01154604559735411</v>
+        <v>0.01115835759960593</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03680237300489263</v>
+        <v>0.03687343209927317</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -8245,19 +8245,19 @@
         <v>6484</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3622</v>
+        <v>3666</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10974</v>
+        <v>10422</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01497873507290688</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008367750603211165</v>
+        <v>0.008468374034772108</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02535195116846535</v>
+        <v>0.02407659475384699</v>
       </c>
     </row>
     <row r="17">
@@ -8274,16 +8274,16 @@
         <v>204196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200507</v>
+        <v>200455</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9928565341057881</v>
+        <v>0.9928565341057883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9749204652633309</v>
+        <v>0.9746681258247689</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8295,19 +8295,19 @@
         <v>222200</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>218853</v>
+        <v>218837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>224592</v>
+        <v>224680</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9779291249048939</v>
+        <v>0.9779291249048935</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9631976269951075</v>
+        <v>0.9631265679007268</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9884539544026458</v>
+        <v>0.9888416424003941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>757</v>
@@ -8316,19 +8316,19 @@
         <v>426395</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>421905</v>
+        <v>422457</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429257</v>
+        <v>429213</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9850212649270932</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9746480488315342</v>
+        <v>0.9759234052461531</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.991632249396789</v>
+        <v>0.9915316259652281</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>11878</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7189</v>
+        <v>6954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18956</v>
+        <v>18646</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04387808313651501</v>
+        <v>0.043878083136515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02655768315660253</v>
+        <v>0.02568868498938682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07002474310081157</v>
+        <v>0.06887927688814008</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -8441,19 +8441,19 @@
         <v>12198</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7631</v>
+        <v>7735</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19234</v>
+        <v>19268</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04624978285156576</v>
+        <v>0.04624978285156574</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02893224335213249</v>
+        <v>0.02932849261941956</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07292527244996863</v>
+        <v>0.07305306687809549</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -8462,19 +8462,19 @@
         <v>24076</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16990</v>
+        <v>16631</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33434</v>
+        <v>32964</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04504849754736319</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03178959330213731</v>
+        <v>0.03111684060411546</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06255648961338924</v>
+        <v>0.06167792047083392</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>258829</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251751</v>
+        <v>252061</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263518</v>
+        <v>263753</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9561219168634851</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9299752568991876</v>
+        <v>0.93112072311186</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9734423168433973</v>
+        <v>0.9743113150106132</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>438</v>
@@ -8512,19 +8512,19 @@
         <v>251552</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>244516</v>
+        <v>244482</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256119</v>
+        <v>256015</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9537502171484344</v>
+        <v>0.953750217148434</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9270747275500314</v>
+        <v>0.9269469331219043</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9710677566478675</v>
+        <v>0.9706715073805804</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>790</v>
@@ -8533,19 +8533,19 @@
         <v>510381</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>501023</v>
+        <v>501493</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>517467</v>
+        <v>517826</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9549515024526369</v>
+        <v>0.9549515024526368</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9374435103866106</v>
+        <v>0.938322079529166</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9682104066978625</v>
+        <v>0.9688831593958844</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>34562</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22650</v>
+        <v>22797</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48398</v>
+        <v>49552</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04802427439019258</v>
+        <v>0.04802427439019259</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03147145361700251</v>
+        <v>0.03167670502553237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06724800498681552</v>
+        <v>0.06885201230123954</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -8658,19 +8658,19 @@
         <v>54220</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42822</v>
+        <v>42514</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69100</v>
+        <v>68975</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07022777028779741</v>
+        <v>0.07022777028779742</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0554642645232411</v>
+        <v>0.05506557268136049</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08950169677530821</v>
+        <v>0.08933914364400433</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -8679,19 +8679,19 @@
         <v>88782</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71899</v>
+        <v>72204</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>110356</v>
+        <v>108602</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05951576451239822</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04819777519906032</v>
+        <v>0.04840241135473637</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07397766216275613</v>
+        <v>0.07280236139692585</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>685125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>671289</v>
+        <v>670135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>697037</v>
+        <v>696890</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9519757256098074</v>
+        <v>0.9519757256098076</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9327519950131847</v>
+        <v>0.9311479876987606</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9685285463829975</v>
+        <v>0.9683232949744677</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>890</v>
@@ -8729,19 +8729,19 @@
         <v>717837</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>702957</v>
+        <v>703082</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>729235</v>
+        <v>729543</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9297722297122024</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9104983032246919</v>
+        <v>0.9106608563559958</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9445357354767587</v>
+        <v>0.9449344273186394</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1460</v>
@@ -8750,19 +8750,19 @@
         <v>1402962</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1381388</v>
+        <v>1383142</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1419845</v>
+        <v>1419540</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9404842354876017</v>
+        <v>0.940484235487602</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9260223378372441</v>
+        <v>0.9271976386030741</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.95180222480094</v>
+        <v>0.9515975886452636</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>6385</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1854</v>
+        <v>1997</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15744</v>
+        <v>16273</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008000377301190716</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002322504612744835</v>
+        <v>0.002502011919827678</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01972761939403688</v>
+        <v>0.02039018580882237</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -8875,19 +8875,19 @@
         <v>7690</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4116</v>
+        <v>3839</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13018</v>
+        <v>13261</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.009265336782234125</v>
+        <v>0.009265336782234127</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004959224465929527</v>
+        <v>0.004625445678079441</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01568437208853871</v>
+        <v>0.01597724119412755</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -8896,19 +8896,19 @@
         <v>14075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7936</v>
+        <v>8212</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24131</v>
+        <v>24716</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008645262738008691</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004874440756018249</v>
+        <v>0.005043795885809279</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01482187551325851</v>
+        <v>0.01518081218444788</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>791687</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>782328</v>
+        <v>781799</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>796218</v>
+        <v>796075</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9919996226988093</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9802723806059633</v>
+        <v>0.9796098141911772</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9976774953872551</v>
+        <v>0.9974979880801719</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1049</v>
@@ -8946,19 +8946,19 @@
         <v>822316</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>816988</v>
+        <v>816745</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>825890</v>
+        <v>826167</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9907346632177659</v>
+        <v>0.990734663217766</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9843156279114613</v>
+        <v>0.9840227588058722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9950407755340706</v>
+        <v>0.9953745543219205</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1806</v>
@@ -8967,19 +8967,19 @@
         <v>1614003</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1603947</v>
+        <v>1603362</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1620142</v>
+        <v>1619866</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9913547372619913</v>
+        <v>0.9913547372619914</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9851781244867416</v>
+        <v>0.9848191878155519</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9951255592439817</v>
+        <v>0.9949562041141906</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>82148</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64843</v>
+        <v>63411</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>104037</v>
+        <v>104393</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02326288178850716</v>
+        <v>0.02326288178850715</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01836246613602113</v>
+        <v>0.01795689111509104</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02946142738698069</v>
+        <v>0.02956241436597362</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>179</v>
@@ -9092,19 +9092,19 @@
         <v>124142</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>103330</v>
+        <v>106334</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>142213</v>
+        <v>144233</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03326147151352506</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0276852947226661</v>
+        <v>0.02849019274602221</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03810324241767862</v>
+        <v>0.03864449078735222</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>261</v>
@@ -9113,19 +9113,19 @@
         <v>206290</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>179194</v>
+        <v>178349</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>236701</v>
+        <v>232881</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02840054169036155</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02467020864503974</v>
+        <v>0.02455387965182898</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03258733819540732</v>
+        <v>0.03206136476803524</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3449132</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3427243</v>
+        <v>3426887</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3466437</v>
+        <v>3467869</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.976737118211493</v>
+        <v>0.9767371182114928</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9705385726130197</v>
+        <v>0.9704375856340263</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9816375338639789</v>
+        <v>0.9820431088849089</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5180</v>
@@ -9163,19 +9163,19 @@
         <v>3608171</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3590100</v>
+        <v>3588080</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3628983</v>
+        <v>3625979</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.966738528486475</v>
+        <v>0.9667385284864749</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9618967575823212</v>
+        <v>0.9613555092126475</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9723147052773339</v>
+        <v>0.9715098072539776</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8472</v>
@@ -9184,19 +9184,19 @@
         <v>7057303</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7026892</v>
+        <v>7030712</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7084399</v>
+        <v>7085244</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9715994583096385</v>
+        <v>0.9715994583096383</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9674126618045927</v>
+        <v>0.9679386352319647</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9753297913549602</v>
+        <v>0.975446120348171</v>
       </c>
     </row>
     <row r="30">
